--- a/dataset/database-asg/network.xlsx
+++ b/dataset/database-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,66 @@
         <v>37.218</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:36:12</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>30.128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:37:15</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>40.514</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:38:17</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>37.306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:39:20</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>29.394</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:40:23</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>29.704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:41:27</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>35.438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/database-asg/network.xlsx
+++ b/dataset/database-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,1437 +438,1437 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/01/2021 00:56:19</t>
+          <t>06/11/2021 00:11:57</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.428</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06/01/2021 00:57:30</t>
+          <t>06/11/2021 00:12:59</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.746</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/01/2021 00:58:42</t>
+          <t>06/11/2021 00:14:01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.124</v>
+        <v>25.896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/01/2021 00:59:54</t>
+          <t>06/11/2021 00:15:04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.996</v>
+        <v>31.164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06/01/2021 01:01:07</t>
+          <t>06/11/2021 00:16:06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.152</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/01/2021 01:02:20</t>
+          <t>06/11/2021 00:17:11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.896</v>
+        <v>34.707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/01/2021 01:03:35</t>
+          <t>06/11/2021 00:18:16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.275</v>
+        <v>34.707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06/01/2021 01:04:46</t>
+          <t>06/11/2021 00:19:19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.181</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/01/2021 01:05:58</t>
+          <t>06/11/2021 00:20:22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.802</v>
+        <v>28.145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/01/2021 01:07:12</t>
+          <t>06/11/2021 00:21:30</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.144</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06/01/2021 01:08:26</t>
+          <t>06/11/2021 00:22:40</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.792</v>
+        <v>29.033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06/01/2021 01:09:40</t>
+          <t>06/11/2021 00:23:47</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.996</v>
+        <v>25.844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/01/2021 01:10:53</t>
+          <t>06/11/2021 00:24:51</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.629</v>
+        <v>28.557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/01/2021 01:12:05</t>
+          <t>06/11/2021 00:25:55</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.64</v>
+        <v>28.681</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06/01/2021 01:13:19</t>
+          <t>06/11/2021 00:26:59</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.992</v>
+        <v>29.248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06/01/2021 01:14:33</t>
+          <t>06/11/2021 00:28:05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.996</v>
+        <v>29.898</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06/01/2021 01:15:47</t>
+          <t>06/11/2021 00:29:10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.986</v>
+        <v>33.362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06/01/2021 01:16:59</t>
+          <t>06/11/2021 00:30:14</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.014</v>
+        <v>34.547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06/01/2021 01:19:24</t>
+          <t>06/11/2021 00:31:19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.096</v>
+        <v>29.603</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06/01/2021 01:20:36</t>
+          <t>06/11/2021 00:32:22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.529</v>
+        <v>28.383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06/01/2021 01:21:49</t>
+          <t>06/11/2021 00:33:25</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.333</v>
+        <v>28.183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06/01/2021 01:26:51</t>
+          <t>06/11/2021 00:34:32</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>136.573</v>
+        <v>29.134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06/01/2021 01:28:07</t>
+          <t>06/11/2021 00:35:34</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.063</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06/01/2021 01:29:25</t>
+          <t>06/11/2021 00:39:44</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.03</v>
+        <v>32.273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06/01/2021 01:34:42</t>
+          <t>06/11/2021 00:40:51</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.2893333333333</v>
+        <v>130.1245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06/01/2021 01:35:59</t>
+          <t>06/11/2021 00:41:53</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.16433333333333</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06/01/2021 01:37:17</t>
+          <t>06/11/2021 00:42:55</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.636</v>
+        <v>29.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06/01/2021 01:42:49</t>
+          <t>06/11/2021 00:47:06</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.33425</v>
+        <v>31.929</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06/01/2021 01:44:12</t>
+          <t>06/11/2021 00:48:10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28.03175</v>
+        <v>82.83533333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06/01/2021 01:45:36</t>
+          <t>06/11/2021 00:49:15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.864</v>
+        <v>27.70133333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06/01/2021 01:47:02</t>
+          <t>06/11/2021 00:50:19</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.608</v>
+        <v>27.53533333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06/01/2021 01:48:30</t>
+          <t>06/11/2021 00:51:24</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.19425</v>
+        <v>27.69133333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06/01/2021 01:49:57</t>
+          <t>06/11/2021 00:52:29</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.29475</v>
+        <v>28.31166666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06/01/2021 01:51:19</t>
+          <t>06/11/2021 00:56:44</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.34275</v>
+        <v>26.148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06/01/2021 01:52:42</t>
+          <t>06/11/2021 00:57:48</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.97575</v>
+        <v>75.22125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06/01/2021 01:54:06</t>
+          <t>06/11/2021 00:58:52</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.32833333333333</v>
+        <v>29.684</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06/01/2021 01:55:31</t>
+          <t>06/11/2021 00:59:56</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28.31833333333333</v>
+        <v>29.247</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06/01/2021 01:56:46</t>
+          <t>06/11/2021 01:01:03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.06766666666666</v>
+        <v>26.312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06/01/2021 01:58:04</t>
+          <t>06/11/2021 01:02:07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.38066666666667</v>
+        <v>26.903</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06/01/2021 01:59:21</t>
+          <t>06/11/2021 01:03:13</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.456</v>
+        <v>25.9375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06/01/2021 02:00:41</t>
+          <t>06/11/2021 01:04:16</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.4385</v>
+        <v>26.997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06/01/2021 02:02:05</t>
+          <t>06/11/2021 01:05:21</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.7525</v>
+        <v>28.394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06/01/2021 02:03:21</t>
+          <t>06/11/2021 01:06:26</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.851</v>
+        <v>37.562</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06/01/2021 02:04:40</t>
+          <t>06/11/2021 01:07:32</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.0345</v>
+        <v>36.67025</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06/01/2021 02:05:57</t>
+          <t>06/11/2021 01:08:37</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.603</v>
+        <v>27.41725</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06/01/2021 02:07:18</t>
+          <t>06/11/2021 01:09:41</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>30.616</v>
+        <v>27.38775</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>06/01/2021 02:08:38</t>
+          <t>06/11/2021 01:10:47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>26.149</v>
+        <v>27.05125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06/01/2021 02:09:53</t>
+          <t>06/11/2021 01:11:51</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>28.152</v>
+        <v>26.893</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06/01/2021 02:11:08</t>
+          <t>06/11/2021 01:12:58</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33.532</v>
+        <v>27.23975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06/01/2021 02:12:28</t>
+          <t>06/11/2021 01:14:03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>23.97</v>
+        <v>27.9455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06/01/2021 02:13:48</t>
+          <t>06/11/2021 01:15:08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>28.708</v>
+        <v>27.5175</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06/01/2021 02:15:07</t>
+          <t>06/11/2021 01:16:12</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>27.562</v>
+        <v>27.847</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06/01/2021 02:16:21</t>
+          <t>06/11/2021 01:17:19</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27.2525</v>
+        <v>31.48125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06/01/2021 02:17:35</t>
+          <t>06/11/2021 01:18:23</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>27.8265</v>
+        <v>42.6715</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>06/01/2021 02:18:52</t>
+          <t>06/11/2021 01:19:29</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>27.628</v>
+        <v>47.825</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06/01/2021 02:20:12</t>
+          <t>06/11/2021 01:20:33</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>25.848</v>
+        <v>37.4865</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06/01/2021 02:21:36</t>
+          <t>06/11/2021 01:21:37</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25.788</v>
+        <v>30.23525</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>06/01/2021 02:22:57</t>
+          <t>06/11/2021 01:22:48</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25.968</v>
+        <v>30.28325</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06/01/2021 02:24:14</t>
+          <t>06/11/2021 01:24:00</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>28.314</v>
+        <v>25.817</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>06/01/2021 02:25:33</t>
+          <t>06/11/2021 01:25:16</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25.84</v>
+        <v>28.464</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06/01/2021 02:26:53</t>
+          <t>06/11/2021 01:26:32</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>26.024</v>
+        <v>28.36425</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06/01/2021 02:28:11</t>
+          <t>06/11/2021 01:27:36</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25.696</v>
+        <v>27.67925</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06/01/2021 02:29:31</t>
+          <t>06/11/2021 01:28:43</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25.872</v>
+        <v>27.81925</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06/01/2021 02:30:54</t>
+          <t>06/11/2021 01:29:47</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25.996</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06/01/2021 02:32:18</t>
+          <t>06/11/2021 01:30:51</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25.696</v>
+        <v>28.85975</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>06/01/2021 02:33:38</t>
+          <t>06/11/2021 01:31:58</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>23.038</v>
+        <v>27.97225</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06/01/2021 02:34:59</t>
+          <t>06/11/2021 01:33:05</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>23.396</v>
+        <v>30.4425</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06/01/2021 02:36:21</t>
+          <t>06/11/2021 01:34:08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>40.036</v>
+        <v>28.2545</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06/01/2021 02:37:32</t>
+          <t>06/11/2021 01:35:13</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28.552</v>
+        <v>27.4385</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06/01/2021 02:38:52</t>
+          <t>06/11/2021 01:36:17</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>34.306</v>
+        <v>30.09775</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06/01/2021 02:40:02</t>
+          <t>06/11/2021 01:37:21</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30.328</v>
+        <v>26.062</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06/01/2021 02:41:22</t>
+          <t>06/11/2021 01:38:25</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>27.972</v>
+        <v>26.18766666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06/01/2021 02:42:46</t>
+          <t>06/11/2021 01:39:31</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>33.57</v>
+        <v>26.052</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06/01/2021 02:43:57</t>
+          <t>06/11/2021 01:40:36</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>24.072</v>
+        <v>26.79866666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06/01/2021 02:45:21</t>
+          <t>06/11/2021 01:41:40</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>40.966</v>
+        <v>26.84533333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06/01/2021 02:46:32</t>
+          <t>06/11/2021 01:42:43</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>31.584</v>
+        <v>26.94166666666666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06/01/2021 02:47:56</t>
+          <t>06/11/2021 01:43:46</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32.749</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06/01/2021 02:49:16</t>
+          <t>06/11/2021 01:44:50</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>30.28</v>
+        <v>26.535</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06/01/2021 02:50:38</t>
+          <t>06/11/2021 01:45:53</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>30.68</v>
+        <v>26.0865</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06/01/2021 02:53:09</t>
+          <t>06/11/2021 01:46:56</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>30.792</v>
+        <v>24.835</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06/01/2021 02:54:33</t>
+          <t>06/11/2021 01:48:14</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>37.114</v>
+        <v>26.196</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06/01/2021 02:55:44</t>
+          <t>06/11/2021 01:49:28</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>26.236</v>
+        <v>26.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06/01/2021 02:57:04</t>
+          <t>06/11/2021 01:51:00</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>29.48</v>
+        <v>26.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06/01/2021 02:58:25</t>
+          <t>06/11/2021 01:52:14</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>30.008</v>
+        <v>27.196</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06/01/2021 02:59:50</t>
+          <t>06/11/2021 01:53:21</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>32.451</v>
+        <v>28.059</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06/01/2021 03:01:21</t>
+          <t>06/11/2021 01:56:36</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25.848</v>
+        <v>30.385</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06/01/2021 03:02:47</t>
+          <t>06/11/2021 01:57:44</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>37.444</v>
+        <v>33.474</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>06/01/2021 03:03:57</t>
+          <t>06/11/2021 01:58:49</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>37.368</v>
+        <v>37.189</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06/01/2021 03:05:08</t>
+          <t>06/11/2021 02:01:03</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25.792</v>
+        <v>24.868</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06/01/2021 03:06:36</t>
+          <t>06/11/2021 02:02:08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25.964</v>
+        <v>29.912</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06/01/2021 03:07:58</t>
+          <t>06/11/2021 02:03:28</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>49.839</v>
+        <v>28.868</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06/01/2021 03:09:08</t>
+          <t>06/11/2021 02:06:36</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>106.79</v>
+        <v>30.656</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06/01/2021 03:10:19</t>
+          <t>06/11/2021 02:07:38</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>56.204</v>
+        <v>30.204</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06/01/2021 03:15:15</t>
+          <t>06/11/2021 02:09:13</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>31.202</v>
+        <v>28.592</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06/01/2021 03:16:39</t>
+          <t>06/11/2021 02:10:23</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>30.274</v>
+        <v>118.436</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>06/01/2021 03:18:08</t>
+          <t>06/11/2021 02:11:25</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>24.594</v>
+        <v>120.434</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06/01/2021 03:19:23</t>
+          <t>06/11/2021 02:12:38</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>33.736</v>
+        <v>36.165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06/01/2021 03:20:47</t>
+          <t>06/11/2021 02:13:59</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>27.86</v>
+        <v>33.199</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06/01/2021 03:22:03</t>
+          <t>06/11/2021 02:15:07</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>27.7</v>
+        <v>32.092</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06/01/2021 03:23:17</t>
+          <t>06/11/2021 02:16:22</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>29.976</v>
+        <v>27.509</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>06/01/2021 03:24:33</t>
+          <t>06/11/2021 02:17:30</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>26.456</v>
+        <v>30.589</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>06/01/2021 03:25:57</t>
+          <t>06/11/2021 02:18:46</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>28.036</v>
+        <v>28.976</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06/01/2021 03:27:20</t>
+          <t>06/11/2021 02:20:10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>34.08</v>
+        <v>25.992</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06/01/2021 03:28:43</t>
+          <t>06/11/2021 02:21:18</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>34.08</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06/01/2021 03:30:00</t>
+          <t>06/11/2021 02:22:31</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>31.072</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06/01/2021 03:31:20</t>
+          <t>06/11/2021 02:23:48</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>30.432</v>
+        <v>27.006</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>06/01/2021 03:32:43</t>
+          <t>06/11/2021 02:24:54</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>30.812</v>
+        <v>25.864</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>06/01/2021 03:34:04</t>
+          <t>06/11/2021 02:26:05</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>34.628</v>
+        <v>25.792</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>06/01/2021 03:35:32</t>
+          <t>06/11/2021 02:27:16</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>31.304</v>
+        <v>26.077</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>06/01/2021 03:36:56</t>
+          <t>06/11/2021 02:28:39</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>29.149</v>
+        <v>25.844</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06/01/2021 03:38:18</t>
+          <t>06/11/2021 02:29:56</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>22.884</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>06/01/2021 03:39:39</t>
+          <t>06/11/2021 02:31:10</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>29.984</v>
+        <v>25.992</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>06/01/2021 03:41:04</t>
+          <t>06/11/2021 02:32:30</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>26.144</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06/01/2021 03:42:25</t>
+          <t>06/11/2021 02:33:37</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>26.048</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06/01/2021 03:43:45</t>
+          <t>06/11/2021 02:34:53</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>26.248</v>
+        <v>27.074</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>06/01/2021 03:45:05</t>
+          <t>06/11/2021 02:36:00</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>26.048</v>
+        <v>29.064</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>06/01/2021 03:46:27</t>
+          <t>06/11/2021 02:37:15</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>26.4</v>
+        <v>71.51000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06/01/2021 03:47:48</t>
+          <t>06/11/2021 02:38:29</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>25.896</v>
+        <v>47.332</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>06/01/2021 03:49:09</t>
+          <t>06/11/2021 02:39:36</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25.792</v>
+        <v>36.929</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>06/01/2021 03:50:30</t>
+          <t>06/11/2021 02:40:59</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>26.6</v>
+        <v>30.061</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>06/01/2021 03:51:51</t>
+          <t>06/11/2021 02:43:12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25.696</v>
+        <v>29.084</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>06/01/2021 03:53:12</t>
+          <t>06/11/2021 02:44:19</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25.792</v>
+        <v>34.182</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06/01/2021 03:54:34</t>
+          <t>06/11/2021 02:45:27</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>26.504</v>
+        <v>39.787</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06/01/2021 03:55:55</t>
+          <t>06/11/2021 02:46:45</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>26.872</v>
+        <v>36.982</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>06/01/2021 03:57:20</t>
+          <t>06/11/2021 02:47:54</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>25.506</v>
+        <v>28.237</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06/01/2021 03:58:42</t>
+          <t>06/11/2021 02:49:15</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>26.956</v>
+        <v>38.144</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>06/01/2021 04:00:05</t>
+          <t>06/11/2021 02:50:28</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>28.564</v>
+        <v>29.732</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>06/01/2021 04:01:26</t>
+          <t>06/11/2021 02:51:39</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>29.52</v>
+        <v>30.041</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>06/01/2021 04:02:47</t>
+          <t>06/11/2021 02:53:00</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>32.93</v>
+        <v>32.548</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>06/01/2021 04:04:18</t>
+          <t>06/11/2021 02:54:03</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>32.284</v>
+        <v>32.808</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>06/01/2021 04:05:43</t>
+          <t>06/11/2021 02:55:19</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>184.034</v>
+        <v>31.288</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>06/01/2021 04:06:54</t>
+          <t>06/11/2021 02:56:31</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>30.272</v>
+        <v>29.599</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>06/01/2021 04:08:11</t>
+          <t>06/11/2021 02:57:50</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>32.132</v>
+        <v>26.627</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>06/01/2021 04:09:30</t>
+          <t>06/11/2021 02:59:07</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>30.52</v>
+        <v>25.784</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>06/01/2021 04:10:47</t>
+          <t>06/11/2021 03:00:25</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>33.696</v>
+        <v>25.976</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>06/01/2021 04:12:06</t>
+          <t>06/11/2021 03:01:45</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>40.746</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>06/01/2021 04:13:18</t>
+          <t>06/11/2021 03:02:57</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>29.864</v>
+        <v>25.916</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>06/01/2021 04:14:35</t>
+          <t>06/11/2021 03:04:10</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>29.764</v>
+        <v>31.218</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>06/01/2021 04:15:51</t>
+          <t>06/11/2021 03:05:20</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25.512</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>06/01/2021 04:17:08</t>
+          <t>06/11/2021 03:06:28</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>32.888</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>06/01/2021 04:18:24</t>
+          <t>06/11/2021 03:07:35</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>26.344</v>
+        <v>28.345</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06/01/2021 04:19:40</t>
+          <t>06/11/2021 03:08:46</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>34.352</v>
+        <v>28.393</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>06/01/2021 04:20:51</t>
+          <t>06/11/2021 03:09:58</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>35.304</v>
+        <v>29.549</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>06/01/2021 04:22:03</t>
+          <t>06/11/2021 03:11:06</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1878,2691 +1878,1721 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>06/01/2021 04:23:20</t>
+          <t>06/11/2021 03:12:21</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>25.792</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06/01/2021 04:24:37</t>
+          <t>06/11/2021 03:13:27</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>25.944</v>
+        <v>25.844</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>06/01/2021 04:25:54</t>
+          <t>06/11/2021 03:14:37</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>28.24</v>
+        <v>22.802</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>06/01/2021 04:27:12</t>
+          <t>06/11/2021 03:15:44</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>26.2</v>
+        <v>24.818</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06/01/2021 04:28:29</t>
+          <t>06/11/2021 03:16:47</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>27.724</v>
+        <v>28.046</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>06/01/2021 04:29:46</t>
+          <t>06/11/2021 03:17:49</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>28.818</v>
+        <v>28.394</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>06/01/2021 04:31:04</t>
+          <t>06/11/2021 03:22:12</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>26.144</v>
+        <v>32.72</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>06/01/2021 04:32:26</t>
+          <t>06/11/2021 03:23:17</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>25.64</v>
+        <v>142.387</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>06/01/2021 04:33:44</t>
+          <t>06/11/2021 03:24:19</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>26.232</v>
+        <v>27.711</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>06/01/2021 04:35:01</t>
+          <t>06/11/2021 03:25:22</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>26.048</v>
+        <v>30.406</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>06/01/2021 04:36:18</t>
+          <t>06/11/2021 03:26:34</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>28.368</v>
+        <v>28.646</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>06/01/2021 04:37:34</t>
+          <t>06/11/2021 03:27:37</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>26.504</v>
+        <v>28.112</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>06/01/2021 04:38:51</t>
+          <t>06/11/2021 03:28:45</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>19.876</v>
+        <v>30.517</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>06/01/2021 04:40:14</t>
+          <t>06/11/2021 03:29:53</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>30</v>
+        <v>29.545</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>06/01/2021 04:41:37</t>
+          <t>06/11/2021 03:30:56</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>34.104</v>
+        <v>26.934</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>06/01/2021 04:42:48</t>
+          <t>06/11/2021 03:32:05</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>32.88</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>06/01/2021 04:44:20</t>
+          <t>06/11/2021 03:33:11</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>44.2</v>
+        <v>30.473</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>06/01/2021 04:45:32</t>
+          <t>06/11/2021 03:34:18</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>29.64</v>
+        <v>29.3785</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>06/01/2021 04:46:55</t>
+          <t>06/11/2021 03:35:31</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>33.28</v>
+        <v>28.9825</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>06/01/2021 04:48:20</t>
+          <t>06/11/2021 03:36:43</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>29.756</v>
+        <v>26.749</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>06/01/2021 04:49:49</t>
+          <t>06/11/2021 03:37:53</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>31.744</v>
+        <v>26.1935</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>06/01/2021 04:51:12</t>
+          <t>06/11/2021 03:38:55</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>31.896</v>
+        <v>26.5745</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>06/01/2021 04:52:36</t>
+          <t>06/11/2021 03:39:57</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>30.064</v>
+        <v>27.442</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>06/01/2021 04:54:00</t>
+          <t>06/11/2021 03:41:01</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>30.84</v>
+        <v>25.848</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>06/01/2021 04:55:26</t>
+          <t>06/11/2021 03:42:08</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>31.212</v>
+        <v>25.992</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>06/01/2021 04:57:59</t>
+          <t>06/11/2021 03:43:16</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>29.332</v>
+        <v>28.841</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>06/01/2021 04:59:21</t>
+          <t>06/11/2021 03:44:25</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>29.666</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>06/01/2021 05:00:44</t>
+          <t>06/11/2021 03:45:33</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>29.436</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>06/01/2021 05:02:08</t>
+          <t>06/11/2021 03:46:40</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>25.848</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>06/01/2021 05:03:32</t>
+          <t>06/11/2021 03:47:46</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>26.2</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>06/01/2021 05:04:58</t>
+          <t>06/11/2021 03:51:58</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>28.321</v>
+        <v>29.133</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>06/01/2021 05:06:26</t>
+          <t>06/11/2021 03:53:05</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>25.696</v>
+        <v>123.546</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>06/01/2021 05:07:57</t>
+          <t>06/11/2021 03:54:09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>25.728</v>
+        <v>27.342</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>06/01/2021 05:09:27</t>
+          <t>06/11/2021 03:55:28</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>25.992</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>06/01/2021 05:10:51</t>
+          <t>06/11/2021 03:59:47</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>25.848</v>
+        <v>27.048</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>06/01/2021 05:12:14</t>
+          <t>06/11/2021 04:00:56</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>26.296</v>
+        <v>97.94600000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>06/01/2021 05:13:40</t>
+          <t>06/11/2021 04:02:00</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>25.64</v>
+        <v>27.18933333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>06/01/2021 05:15:05</t>
+          <t>06/11/2021 04:03:19</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>26.088</v>
+        <v>27.88833333333333</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>06/01/2021 05:16:30</t>
+          <t>06/11/2021 04:04:44</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>21.03</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06/01/2021 05:17:55</t>
+          <t>06/11/2021 04:06:16</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>34.887</v>
+        <v>28.25533333333334</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>06/01/2021 05:19:05</t>
+          <t>06/11/2021 04:08:04</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>28.184</v>
+        <v>27.32666666666667</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>06/01/2021 05:20:30</t>
+          <t>06/11/2021 04:09:20</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>27.944</v>
+        <v>26.65866666666667</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>06/01/2021 05:21:54</t>
+          <t>06/11/2021 04:10:40</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>28.111</v>
+        <v>27.75366666666666</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>06/01/2021 05:24:29</t>
+          <t>06/11/2021 04:12:13</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>42.14</v>
+        <v>28.018</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>06/01/2021 05:25:41</t>
+          <t>06/11/2021 04:14:06</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>31.144</v>
+        <v>29.86066666666666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>06/01/2021 05:27:06</t>
+          <t>06/11/2021 04:15:47</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>34.32</v>
+        <v>29.53633333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>06/01/2021 05:28:18</t>
+          <t>06/11/2021 04:16:50</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>36.22</v>
+        <v>30.84533333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>06/01/2021 05:29:30</t>
+          <t>06/11/2021 04:18:08</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>21.1</v>
+        <v>27.78133333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>06/01/2021 05:30:55</t>
+          <t>06/11/2021 04:19:12</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>37.15</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>06/01/2021 05:32:09</t>
+          <t>06/11/2021 04:20:16</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>37.336</v>
+        <v>26.688</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>06/01/2021 05:33:20</t>
+          <t>06/11/2021 04:21:39</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>18.248</v>
+        <v>26.40533333333333</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>06/01/2021 05:34:45</t>
+          <t>06/11/2021 04:22:43</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>71.678</v>
+        <v>26.39466666666667</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>06/01/2021 05:35:56</t>
+          <t>06/11/2021 04:23:47</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>30.742</v>
+        <v>28.86733333333333</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>06/01/2021 05:37:21</t>
+          <t>06/11/2021 04:25:40</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>26.352</v>
+        <v>26.95166666666666</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>06/01/2021 05:38:45</t>
+          <t>06/11/2021 04:26:44</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>32.408</v>
+        <v>26.127</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>06/01/2021 05:40:11</t>
+          <t>06/11/2021 04:27:48</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>29.424</v>
+        <v>26.339</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>06/01/2021 05:41:46</t>
+          <t>06/11/2021 04:28:53</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>25.792</v>
+        <v>26.6525</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>06/01/2021 05:43:14</t>
+          <t>06/11/2021 04:29:57</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>30.304</v>
+        <v>26.174</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>06/01/2021 05:44:42</t>
+          <t>06/11/2021 04:31:01</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>26.048</v>
+        <v>26.174</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>06/01/2021 05:46:11</t>
+          <t>06/11/2021 04:32:03</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>26.2</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>06/01/2021 05:47:46</t>
+          <t>06/11/2021 04:33:06</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>25.696</v>
+        <v>27.058</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>06/01/2021 05:49:16</t>
+          <t>06/11/2021 04:34:10</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>25.944</v>
+        <v>26.344</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>06/01/2021 05:50:46</t>
+          <t>06/11/2021 04:38:44</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>25.992</v>
+        <v>31.596</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>06/01/2021 05:52:18</t>
+          <t>06/11/2021 04:40:22</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>26.418</v>
+        <v>54.036</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>06/01/2021 05:53:49</t>
+          <t>06/11/2021 04:41:55</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>25.944</v>
+        <v>27.209</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>06/01/2021 05:55:20</t>
+          <t>06/11/2021 04:43:35</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>26.152</v>
+        <v>27.476</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>06/01/2021 05:56:54</t>
+          <t>06/11/2021 04:45:08</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>25.992</v>
+        <v>33.21</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>06/01/2021 05:58:23</t>
+          <t>06/11/2021 04:46:11</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>32.058</v>
+        <v>23.3455</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>06/01/2021 05:59:50</t>
+          <t>06/11/2021 04:47:41</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>28.04</v>
+        <v>30.0065</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>06/01/2021 06:01:18</t>
+          <t>06/11/2021 04:49:16</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>33.904</v>
+        <v>28.002</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>06/01/2021 06:02:50</t>
+          <t>06/11/2021 04:51:10</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>25.168</v>
+        <v>38.336</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>06/01/2021 06:04:23</t>
+          <t>06/11/2021 04:52:53</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>30.248</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>06/01/2021 06:05:49</t>
+          <t>06/11/2021 04:54:05</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>33.576</v>
+        <v>30.175</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>06/01/2021 06:07:17</t>
+          <t>06/11/2021 04:55:18</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>32.152</v>
+        <v>27.992</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>06/01/2021 06:08:46</t>
+          <t>06/11/2021 04:56:22</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>47.038</v>
+        <v>29.9215</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>06/01/2021 06:09:57</t>
+          <t>06/11/2021 04:57:32</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>31.218</v>
+        <v>31.7765</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>06/01/2021 06:11:24</t>
+          <t>06/11/2021 04:58:44</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>35.18</v>
+        <v>29.291</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>06/01/2021 06:12:56</t>
+          <t>06/11/2021 04:59:54</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>30.158</v>
+        <v>26.906</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>06/01/2021 06:14:28</t>
+          <t>06/11/2021 05:00:57</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>32.72</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>06/01/2021 06:16:05</t>
+          <t>06/11/2021 05:02:01</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>32.344</v>
+        <v>27.138</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>06/01/2021 06:17:34</t>
+          <t>06/11/2021 05:03:06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>37.102</v>
+        <v>25.848</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>06/01/2021 06:19:02</t>
+          <t>06/11/2021 05:04:20</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>29.1</v>
+        <v>29.725</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>06/01/2021 06:20:31</t>
+          <t>06/11/2021 05:05:28</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>31.704</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>06/01/2021 06:22:11</t>
+          <t>06/11/2021 05:06:58</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>25.84</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>06/01/2021 06:23:40</t>
+          <t>06/11/2021 05:08:42</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>25.464</v>
+        <v>26.12</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>06/01/2021 06:25:11</t>
+          <t>06/11/2021 05:10:27</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>30.434</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>06/01/2021 06:26:40</t>
+          <t>06/11/2021 05:12:27</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>25.992</v>
+        <v>26.962</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>06/01/2021 06:28:16</t>
+          <t>06/11/2021 05:14:17</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>26.048</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>06/01/2021 06:29:44</t>
+          <t>06/11/2021 05:15:27</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>25.888</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>06/01/2021 06:31:18</t>
+          <t>06/11/2021 05:17:18</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>52.264</v>
+        <v>33.903</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>06/01/2021 06:32:30</t>
+          <t>06/11/2021 05:21:15</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>51.92</v>
+        <v>38.508</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>06/01/2021 06:33:45</t>
+          <t>06/11/2021 05:22:56</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>64.996</v>
+        <v>34.402</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>06/01/2021 06:38:43</t>
+          <t>06/11/2021 05:24:23</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>53.988</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>06/01/2021 06:39:59</t>
+          <t>06/11/2021 05:25:50</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>96.98599999999999</v>
+        <v>31.404</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>06/01/2021 06:41:15</t>
+          <t>06/11/2021 05:27:21</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>42.785</v>
+        <v>25.512</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>06/01/2021 06:42:49</t>
+          <t>06/11/2021 05:28:56</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>47.884</v>
+        <v>30.968</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>06/01/2021 06:44:20</t>
+          <t>06/11/2021 05:30:38</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>30.243</v>
+        <v>28.971</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>06/01/2021 06:45:35</t>
+          <t>06/11/2021 05:32:21</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>32.666</v>
+        <v>39.573</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>06/01/2021 06:47:06</t>
+          <t>06/11/2021 05:33:23</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>30.4</v>
+        <v>33.464</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>06/01/2021 06:48:21</t>
+          <t>06/11/2021 05:34:59</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>33.296</v>
+        <v>33.544</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>06/01/2021 06:49:53</t>
+          <t>06/11/2021 05:36:41</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>32.504</v>
+        <v>31.156</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>06/01/2021 06:51:29</t>
+          <t>06/11/2021 05:38:10</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>43.102</v>
+        <v>29.83</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>06/01/2021 06:52:59</t>
+          <t>06/11/2021 05:39:38</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>30.912</v>
+        <v>26.938</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>06/01/2021 06:54:30</t>
+          <t>06/11/2021 05:41:12</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>32.559</v>
+        <v>25.848</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>06/01/2021 06:56:02</t>
+          <t>06/11/2021 05:42:49</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>31.44</v>
+        <v>26.276</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>06/01/2021 06:57:35</t>
+          <t>06/11/2021 05:44:24</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>31.355</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>06/01/2021 06:58:51</t>
+          <t>06/11/2021 05:46:21</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>24.815</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>06/01/2021 07:00:06</t>
+          <t>06/11/2021 05:47:57</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>37.805</v>
+        <v>31.843</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>06/01/2021 07:01:47</t>
+          <t>06/11/2021 05:49:39</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>28.023</v>
+        <v>25.896</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>06/01/2021 07:03:02</t>
+          <t>06/11/2021 05:50:43</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>26.239</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>06/01/2021 07:04:19</t>
+          <t>06/11/2021 05:51:55</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>26.715</v>
+        <v>27.249</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>06/01/2021 07:05:37</t>
+          <t>06/11/2021 05:53:24</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>26.252</v>
+        <v>32.079</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>06/01/2021 07:07:11</t>
+          <t>06/11/2021 05:55:08</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>26.252</v>
+        <v>25.992</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>06/01/2021 07:08:37</t>
+          <t>06/11/2021 05:56:53</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>28.544</v>
+        <v>25.931</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>06/01/2021 07:10:05</t>
+          <t>06/11/2021 05:58:01</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>27.672</v>
+        <v>25.452</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>06/01/2021 07:11:35</t>
+          <t>06/11/2021 05:59:08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>28.876</v>
+        <v>30.416</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>06/01/2021 07:13:04</t>
+          <t>06/11/2021 06:00:56</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>26.152</v>
+        <v>36.335</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>06/01/2021 07:14:32</t>
+          <t>06/11/2021 06:02:31</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>24.316</v>
+        <v>28.802</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>06/01/2021 07:16:01</t>
+          <t>06/11/2021 06:03:59</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>24.012</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>06/01/2021 07:17:29</t>
+          <t>06/11/2021 06:05:06</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>28.076</v>
+        <v>31.288</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>06/01/2021 07:18:57</t>
+          <t>06/11/2021 06:06:51</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>27.066</v>
+        <v>32.932</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>06/01/2021 07:21:38</t>
+          <t>06/11/2021 06:08:30</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>35.804</v>
+        <v>31.42</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>06/01/2021 07:23:04</t>
+          <t>06/11/2021 06:10:10</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>27.728</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>06/01/2021 07:24:35</t>
+          <t>06/11/2021 06:14:41</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>35.065</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>06/01/2021 07:26:05</t>
+          <t>06/11/2021 06:16:17</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>32.232</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>06/01/2021 07:27:34</t>
+          <t>06/11/2021 06:17:22</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>30.562</v>
+        <v>54.269</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>06/01/2021 07:29:05</t>
+          <t>06/11/2021 06:21:39</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>36.112</v>
+        <v>25.9145</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>06/01/2021 07:30:35</t>
+          <t>06/11/2021 06:22:43</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>35.192</v>
+        <v>80.72233333333334</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>06/01/2021 07:32:08</t>
+          <t>06/11/2021 06:23:50</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>34.168</v>
+        <v>26.538</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>06/01/2021 07:36:00</t>
+          <t>06/11/2021 06:25:01</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>43.434</v>
+        <v>26.80666666666667</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>06/01/2021 07:37:12</t>
+          <t>06/11/2021 06:26:07</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>61.842</v>
+        <v>26.324</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>06/01/2021 07:38:25</t>
+          <t>06/11/2021 06:27:20</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>53.338</v>
+        <v>26.368</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>06/01/2021 07:43:19</t>
+          <t>06/11/2021 06:28:33</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>195.243</v>
+        <v>26.368</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>06/01/2021 07:44:35</t>
+          <t>06/11/2021 06:29:46</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>26.4815</v>
+        <v>26.899</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>06/01/2021 07:45:51</t>
+          <t>06/11/2021 06:30:51</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>26.2265</v>
+        <v>27.5765</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>06/01/2021 07:47:07</t>
+          <t>06/11/2021 06:32:06</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>24.092</v>
+        <v>37.494</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>06/01/2021 07:48:25</t>
+          <t>06/11/2021 06:33:19</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>28.22</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>06/01/2021 07:49:59</t>
+          <t>06/11/2021 06:34:30</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>26.348</v>
+        <v>28.174</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>06/01/2021 07:51:33</t>
+          <t>06/11/2021 06:35:40</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>26.348</v>
+        <v>29.546</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>06/01/2021 07:52:59</t>
+          <t>06/11/2021 06:36:59</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>27.366</v>
+        <v>26.791</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>06/01/2021 07:54:29</t>
+          <t>06/11/2021 06:38:11</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>26.448</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>06/01/2021 07:55:58</t>
+          <t>06/11/2021 06:39:16</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>26.096</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>06/01/2021 07:57:27</t>
+          <t>06/11/2021 06:40:22</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>26.536</v>
+        <v>32.37</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>06/01/2021 07:58:57</t>
+          <t>06/11/2021 06:41:25</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>27.626</v>
+        <v>28.238</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>06/01/2021 08:00:28</t>
+          <t>06/11/2021 06:42:29</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>25.724</v>
+        <v>32.263</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>06/01/2021 08:03:26</t>
+          <t>06/11/2021 06:43:50</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>29.648</v>
+        <v>36.047</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>06/01/2021 08:05:17</t>
+          <t>06/11/2021 06:45:06</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>23.628</v>
+        <v>36.047</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>06/01/2021 08:06:58</t>
+          <t>06/11/2021 06:46:23</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>33.719</v>
+        <v>32.981</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>06/01/2021 08:08:38</t>
+          <t>06/11/2021 06:47:39</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>31.644</v>
+        <v>31.572</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>06/01/2021 08:10:18</t>
+          <t>06/11/2021 06:48:55</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>32.192</v>
+        <v>34.146</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>06/01/2021 08:13:08</t>
+          <t>06/11/2021 06:50:08</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>21.668</v>
+        <v>28.056</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>06/01/2021 08:14:40</t>
+          <t>06/11/2021 06:51:25</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>33.408</v>
+        <v>34.492</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>06/01/2021 08:16:12</t>
+          <t>06/11/2021 06:52:34</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>23.528</v>
+        <v>33</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>06/01/2021 08:17:45</t>
+          <t>06/11/2021 06:56:48</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>29.868</v>
+        <v>39.575</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>06/01/2021 08:19:18</t>
+          <t>06/11/2021 06:58:01</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>32.272</v>
+        <v>83.56700000000001</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>06/01/2021 08:20:49</t>
+          <t>06/11/2021 06:59:05</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>35.468</v>
+        <v>49.339</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>06/01/2021 08:22:24</t>
+          <t>06/11/2021 07:00:10</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>26.048</v>
+        <v>30.422</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>06/01/2021 08:23:56</t>
+          <t>06/11/2021 07:01:13</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>26.264</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>06/01/2021 08:25:28</t>
+          <t>06/11/2021 07:02:17</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>25.944</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>06/01/2021 08:27:02</t>
+          <t>06/11/2021 07:03:28</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>25.944</v>
+        <v>26.768</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>06/01/2021 08:28:43</t>
+          <t>06/11/2021 07:04:43</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>25.992</v>
+        <v>26.768</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>06/01/2021 08:30:13</t>
+          <t>06/11/2021 07:05:52</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>30.408</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>06/01/2021 08:31:46</t>
+          <t>06/11/2021 07:07:08</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>29.304</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>06/01/2021 08:33:20</t>
+          <t>06/11/2021 07:08:28</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>23.812</v>
+        <v>26.456</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>06/01/2021 08:34:51</t>
+          <t>06/11/2021 07:09:45</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>26.448</v>
+        <v>26.144</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>06/01/2021 08:36:24</t>
+          <t>06/11/2021 07:11:00</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>28.076</v>
+        <v>50.924</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>06/01/2021 08:37:59</t>
+          <t>06/11/2021 07:12:15</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>26.024</v>
+        <v>51.106</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>06/01/2021 08:39:30</t>
+          <t>06/11/2021 07:13:35</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>28.2</v>
+        <v>51.13</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>06/01/2021 08:41:02</t>
+          <t>06/11/2021 07:14:47</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>22.888</v>
+        <v>87.33199999999999</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>06/01/2021 08:42:35</t>
+          <t>06/11/2021 07:16:02</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>33.88</v>
+        <v>96.02200000000001</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>06/01/2021 08:44:07</t>
+          <t>06/11/2021 07:17:17</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>35.862</v>
+        <v>97.592</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>06/01/2021 08:45:20</t>
+          <t>06/11/2021 07:18:36</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:46:53</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>27.56</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:48:29</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:50:04</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>27.304</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:51:45</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>28.048</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:53:18</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>27.264</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:54:49</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:56:21</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>29.86</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:57:54</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>24.108</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>06/01/2021 08:59:26</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>34.648</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:00:39</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>15.58</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:02:23</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>28.508</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:03:56</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>30.588</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:05:32</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>28.672</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:07:05</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>25.696</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:08:49</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:10:22</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>33.596</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:11:55</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>26.048</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:13:30</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>55.474</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:14:42</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>59.548</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:15:54</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>59.844</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:20:49</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>180.4055</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:22:04</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>39.92</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:23:39</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:29:09</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>85.26733333333333</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:30:28</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>31.57466666666667</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:32:12</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>33.99733333333334</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:34:09</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>22.38333333333334</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:35:28</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>33.43466666666666</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:37:20</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>29.44666666666667</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:39:01</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>22.25333333333333</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:40:20</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>34.69433333333333</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:42:03</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>29.07733333333333</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:43:23</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>27.514</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:44:43</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>25.996</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:46:05</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>30.036</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:47:49</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>26.018</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:49:02</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>24.958</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:50:18</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>26.6425</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:51:36</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>26.144</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:53:16</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>26.136</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:54:56</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>25.792</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:56:34</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>27.98</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:58:11</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>26.144</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>06/01/2021 09:59:52</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>25.64</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:01:28</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>26.256</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:03:06</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>29.536</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:04:48</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>27.68</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:06:28</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>29.64</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:08:05</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>36.488</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:09:47</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>30.448</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:11:33</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>38.52</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:13:11</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>29.328</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:14:48</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>31.768</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:16:27</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>29.032</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:18:07</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>30.664</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:19:45</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>32.136</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:21:23</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>30.552</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:23:14</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>25.64</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:24:57</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>25.992</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:26:35</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:28:13</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>25.992</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:29:52</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>25.792</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:31:35</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>25.848</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:33:15</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>25.696</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:35:09</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>28.504</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:36:49</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>27.868</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:38:33</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>28.57</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:40:14</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>25.84</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:41:52</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>19.404</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:43:32</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>28.088</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:45:16</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:46:58</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>37.796</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:48:10</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>27.736</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:49:49</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>27.36</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:51:29</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>27.152</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:53:12</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:54:55</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>34.176</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:56:07</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>29.826</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:57:59</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>27.296</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>06/01/2021 10:59:40</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>13.896</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:01:25</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>38.694</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:02:40</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>39.052</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:03:54</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>24.802</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:05:43</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>25.88</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:07:25</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>27.19</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:09:16</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>31.266</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:11:02</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>25.928</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:12:46</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>29.598</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:14:26</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>25.64</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:16:07</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>27.876</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:17:48</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>26.144</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:19:31</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>25.992</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:21:17</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>25.896</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:23:00</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>29.472</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:24:43</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>31.704</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:26:36</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>29.16</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>06/01/2021 11:28:19</t>
-        </is>
-      </c>
-      <c r="B414" t="n">
-        <v>29.328</v>
+        <v>90.268</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/database-asg/network.xlsx
+++ b/dataset/database-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3595,6 +3595,1736 @@
         <v>90.268</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:20:05</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>60.804</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:24:20</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>50.024</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:25:27</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>172.857</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:26:31</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>39.053</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:27:35</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>42.535</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:32:32</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>40.017</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:33:36</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>148.5673333333333</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:34:40</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>37.78266666666667</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:36:39</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>40.82266666666667</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:37:44</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>46.804</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:38:48</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>37.39166666666667</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:39:53</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>25.909</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:40:57</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>25.909</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:42:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>27.594</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:43:04</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:44:13</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:46:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>28.484</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:47:08</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>26.656</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:49:02</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>31.676</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:50:53</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>26.512</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:52:02</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>26.152</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:53:18</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:54:58</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>30.453</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:56:45</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>30.664</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:57:58</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>30.626</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:59:24</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:01:07</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>31.198</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:02:33</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>25.848</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:04:07</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>25.944</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:05:54</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:07:56</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>26.352</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:09:36</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>26.144</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:10:40</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>29.232</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:11:50</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>28.236</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:13:32</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>26.296</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:15:08</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>23.508</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:16:36</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>27.62</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:17:54</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>25.992</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:19:16</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>26.048</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:20:57</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>25.848</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:22:21</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>26.248</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:23:50</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>24.012</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:25:19</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>26.394</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:26:55</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>28.076</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:31:53</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:33:23</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>126.537</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:34:27</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>26.671</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:39:20</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>26.432</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:41:09</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>38.09266666666667</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:42:13</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>81.94566666666667</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:43:53</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>26.40933333333334</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:44:57</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>26.77133333333333</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:49:13</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>26.29733333333333</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:50:18</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>26.154</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:51:23</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>94.69066666666667</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:52:30</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>92.95533333333333</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:53:34</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>31.425</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:54:38</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>27.971</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:55:43</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>29.819</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:56:50</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>39.7735</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:57:56</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>39.7735</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:58:59</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>26.176</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:00:52</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>26.176</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:02:04</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>29.318</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:03:13</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:04:18</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>33.026</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:05:26</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>29.954</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:06:34</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>26.224</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:08:25</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>26.296</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:09:33</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:10:40</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>26.196</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:11:47</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>28.469</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:13:35</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>29.023</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:17:56</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>25.908</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:19:50</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>133.005</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:20:57</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>61.49250000000001</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:22:28</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>29.185</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:23:33</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>27.6595</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:25:04</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>26.767</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:26:11</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>27.411</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:27:19</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>25.805</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:28:24</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>26.424</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:29:39</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>26.424</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:31:06</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>28.636</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:32:47</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>29.914</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:34:09</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>24.588</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:36:06</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:38:05</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>24.476</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:40:30</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>27.11</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:42:22</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>30.191</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:44:12</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>31.218</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:46:21</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>27.961</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:48:21</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>27.138</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:50:13</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>25.904</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:52:12</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:53:56</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>26.044</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:58:44</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>26.044</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:00:14</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>206.197</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:01:19</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>42.067</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:05:31</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>26.811</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:06:59</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>80.63733333333333</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:08:06</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>26.28533333333334</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:09:50</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>26.58866666666666</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:11:40</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>26.57366666666666</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:13:19</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>26.93333333333333</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:14:43</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>26.29866666666667</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:16:08</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>26.88666666666667</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:17:45</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>26.248</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:19:10</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>26.40266666666666</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:20:33</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>26.49533333333333</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:21:38</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>26.08266666666667</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:23:15</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>26.64733333333334</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:24:51</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>26.104</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:26:28</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>29.00766666666667</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:27:52</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>26.64633333333333</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:28:59</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>26.36733333333333</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:30:03</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>30.81466666666667</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:31:37</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>28.12533333333333</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:33:07</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>26.62266666666666</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:34:12</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>25.76266666666666</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:35:46</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>28.634</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:36:52</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>26.68433333333333</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:37:58</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>26.02266666666667</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:39:32</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:40:39</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>26.08933333333333</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:41:44</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>25.93466666666667</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:42:49</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>25.894</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:43:55</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>25.918</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:45:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>26.902</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:46:04</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>25.848</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:47:52</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>24.902</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:49:24</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>25.968</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:50:57</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>24.802</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:52:33</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>27.298</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:54:11</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>25.948</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:55:49</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>25.872</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:57:22</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:59:07</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>25.696</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:00:46</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>28.521</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:02:24</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>26.834</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:04:12</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>25.999</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:06:02</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:10:36</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:11:44</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>129.522</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:12:49</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>43.8505</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:17:05</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>25.338</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:18:55</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>67.51400000000001</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:20:01</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>29.02266666666667</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:21:48</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>27.62566666666666</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:23:26</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>28.02466666666666</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:25:16</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>27.44066666666667</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:26:21</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>26.89066666666666</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:28:01</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>27.20866666666667</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:29:06</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>25.98133333333334</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:31:01</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>37.76</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:36:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>28.62</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:37:40</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>65.90475000000001</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:38:46</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>42.96375</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:39:58</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>50.80175</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:41:52</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>26.4715</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:43:47</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>26.11</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:45:38</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>27.242</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:47:19</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>25.018</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:48:28</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>26.019</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:50:19</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>28.25125</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:52:06</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>25.992</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:54:04</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>26.072</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:55:13</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>25.961</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:56:28</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>26.33825</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:58:24</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>26.67825</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:59:32</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>26.568</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>06/11/2021 12:00:39</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>26.9655</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>06/11/2021 12:01:50</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>30.881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
